--- a/Assignment 3/Misc File/Tables.xlsx
+++ b/Assignment 3/Misc File/Tables.xlsx
@@ -529,7 +529,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
